--- a/src/main/java/com/tutorialsninja/qa/testdata/TutorialsNinjaTestData.xlsx
+++ b/src/main/java/com/tutorialsninja/qa/testdata/TutorialsNinjaTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arunm\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\TutorialsNinjaHybridFrameworkRepo\src\main\java\com\tutorialsninja\qa\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76DD717-E847-4740-A299-B02A216AD618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBA3969-D08D-48E1-8526-8CE244F7B657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D7623641-1D76-4CA1-A366-04F62E4AA1D3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D7623641-1D76-4CA1-A366-04F62E4AA1D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Email</t>
   </si>
@@ -41,10 +33,13 @@
     <t>Password</t>
   </si>
   <si>
-    <t>amotooricap9@gmail.com</t>
-  </si>
-  <si>
     <t>amotooricap1@gmail.com</t>
+  </si>
+  <si>
+    <t>golusulasrikanth91@gmail.com</t>
+  </si>
+  <si>
+    <t>Srik@nth99</t>
   </si>
   <si>
     <t>amotooricap3@gmail.com</t>
@@ -435,14 +430,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F41CE02-E721-4943-90D4-67B3987DFCAC}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,35 +447,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3">
         <v>12345</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3">
         <v>12345</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" s="3">
-        <v>12345</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{60FEB029-EE5B-45F6-8DE6-F97638432156}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{72BF88CA-C10E-44B2-843E-4C6AE7E8AC53}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{702BBD34-2AA9-45FF-A042-39E3802F70A2}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{83485C2E-0E9B-4E0E-AB81-D94649FCD642}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{802F5175-AF10-4EE5-BB32-8C0F998E30E6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
